--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_24_DateRangeValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_24_DateRangeValidation.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateValidation" sheetId="1" r:id="Rab911906701b4d5c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateValidation" sheetId="1" r:id="R63b777cb2cac4647"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -122,18 +123,18 @@
   </x:sheetData>
   <x:dataValidations count="4">
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThan" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C2:C2">
-      <x:formula1>45977</x:formula1>
+      <x:formula1>45981</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="between" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C3:C3">
       <x:formula1>45658</x:formula1>
       <x:formula2>46022</x:formula2>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="lessThan" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C4:C4">
-      <x:formula1>45977</x:formula1>
+      <x:formula1>45981</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="between" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C5:C5">
-      <x:formula1>45977</x:formula1>
-      <x:formula2>46007</x:formula2>
+      <x:formula1>45981</x:formula1>
+      <x:formula2>46011</x:formula2>
     </x:dataValidation>
   </x:dataValidations>
 </x:worksheet>

--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_24_DateRangeValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_24_DateRangeValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateValidation" sheetId="1" r:id="R63b777cb2cac4647"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateValidation" sheetId="1" r:id="Rb329e4fbfd084823"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,18 +123,18 @@
   </x:sheetData>
   <x:dataValidations count="4">
     <x:dataValidation type="date" errorStyle="stop" operator="greaterThan" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C2:C2">
-      <x:formula1>45981</x:formula1>
+      <x:formula1>46034</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="between" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C3:C3">
       <x:formula1>45658</x:formula1>
       <x:formula2>46022</x:formula2>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="lessThan" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C4:C4">
-      <x:formula1>45981</x:formula1>
+      <x:formula1>46034</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="date" errorStyle="stop" operator="between" allowBlank="1" showInputMessage="0" showErrorMessage="1" sqref="C5:C5">
-      <x:formula1>45981</x:formula1>
-      <x:formula2>46011</x:formula2>
+      <x:formula1>46034</x:formula1>
+      <x:formula2>46064</x:formula2>
     </x:dataValidation>
   </x:dataValidations>
 </x:worksheet>
